--- a/biology/Mycologie/Hermann_zu_Solms-Laubach/Hermann_zu_Solms-Laubach.xlsx
+++ b/biology/Mycologie/Hermann_zu_Solms-Laubach/Hermann_zu_Solms-Laubach.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le comte Hermann Maximilian Carl Ludwig Friedrich zu Solms-Laubach est un botaniste allemand, né en 1842 à Laubach (Hesse) et mort en 1915 à Strasbourg.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie à Fribourg aux côtés de Heinrich Anton de Bary (1831-1888) et d'Alexander Karl Heinrich Braun (1805-1877) puis à Berlin en 1865. Il reçoit son habilitation à l’université de Halle en 1868. Il enseigne à l'université de Strasbourg de 1872 à 1879, puis à partir de 1888, ainsi qu’à Göttingen de 1879 à 1888 où il dirige également le jardin botanique.
 Solms-Laubach s’intéresse à la morphologie et la systématique végétale ainsi qu’à la paléobotanique. Il voyage au Portugal en 1866 et à Java en 1883-1884.
@@ -543,7 +557,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le comte zu Solms-Laubach est nommé en 1902 membre étranger de la Royal Society et reçoit en 1911 la médaille linnéenne de la Société linnéenne de Londres.
 Deux genres lui sont dédiés:
